--- a/Многомерный анализ и прогнозирование/точки на графике.xlsx
+++ b/Многомерный анализ и прогнозирование/точки на графике.xlsx
@@ -5,30 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\7 сем\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\7 сем\7_sem\Многомерный анализ и прогнозирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528FD610-87A4-4C96-A9FD-3B7C1EFAF4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAC464-6EE4-4C76-A395-CF6699BAB38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{359699B7-45B3-472F-85CF-B239163E2D92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{359699B7-45B3-472F-85CF-B239163E2D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="одиночная связь" sheetId="2" r:id="rId2"/>
+    <sheet name="Полная связь" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -87,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +89,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,19 +129,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +165,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -223,28 +245,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7D07553-8B19-49E9-ADDB-F6D48B649310}" type="CELLRANGE">
+                    <a:fld id="{54196CC8-4C22-4AB3-829C-151CC8B6AD9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{843FCC08-F030-489A-A992-C5C1CAB68250}" type="XVALUE">
+                    <a:fld id="{3A1035B6-DD2D-4491-9A4C-CD8924CBFF92}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{2ED1DDF3-718A-413F-A991-FF23CA0A693B}" type="YVALUE">
+                    <a:fld id="{BC7C0049-34B4-4C74-BFFC-8418EC490674}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -274,28 +296,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{348D3E81-AEF3-4210-BF66-BF62CC24F379}" type="CELLRANGE">
+                    <a:fld id="{FFFB39DD-B18B-4730-91EC-01F8424BCC57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{B7962B94-A347-4A70-9893-BC922DF92472}" type="XVALUE">
+                    <a:fld id="{F1708DA7-850D-4425-9F6E-0C67909F7148}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{5719DED0-D992-4AE4-9EE4-3B7B9E137059}" type="YVALUE">
+                    <a:fld id="{4A0F019C-6B57-499B-9135-8A00FECFC26A}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -325,28 +347,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F53F0AD4-26A7-4421-80DA-226B226F0A68}" type="CELLRANGE">
+                    <a:fld id="{1B4C66B9-B7D8-42FD-96EC-CCD6D6051EDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{0C113A22-DD0F-4879-AD26-043D76E8B77E}" type="XVALUE">
+                    <a:fld id="{C10183E3-34D8-4FC2-AFA1-0535DD492921}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{4E11BDF3-6B04-488A-A5E3-4A569873BDED}" type="YVALUE">
+                    <a:fld id="{45486EA3-4ACB-4199-9374-23182608778D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -376,28 +398,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05858AFB-AD15-435A-95E1-53DCBCE66800}" type="CELLRANGE">
+                    <a:fld id="{6CC2217F-A6B6-41F2-AB72-6D5F008637FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{5DA16DE3-2C86-4627-A6DF-4DE79E484909}" type="XVALUE">
+                    <a:fld id="{D8454905-8CBC-4C27-B3C5-2FB19412ADF0}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{3F1685CD-DD4B-4CD3-91F5-9082B61A770A}" type="YVALUE">
+                    <a:fld id="{211CCD19-9EAC-4A73-BB7A-982FA85B6953}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -427,28 +449,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB786932-E078-41F7-AE31-3CDC3B58E362}" type="CELLRANGE">
+                    <a:fld id="{71F8AAD1-18F9-4382-8B96-0EEAC9327D3D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{37438A39-3C56-4AFB-B18B-6E66C1027F60}" type="XVALUE">
+                    <a:fld id="{39A647D9-4FCC-49B4-AC9B-A422C02E5223}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{151DAA76-9972-4F53-B81E-CB3666FEBEE7}" type="YVALUE">
+                    <a:fld id="{F54DA95D-EC91-4F2E-A7BB-DFD63D78C8D7}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -478,28 +500,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70D6A175-8E7D-499D-8A75-78816F04D231}" type="CELLRANGE">
+                    <a:fld id="{F2B476F8-9C98-4AA3-82D1-58B24630AB39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{D37965E3-D7B8-4A8D-B3DE-E68EFAF58CA1}" type="XVALUE">
+                    <a:fld id="{70860EF7-C63A-48C9-AAD7-1BEE49FCE3D4}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{6980FDB5-FD54-44DE-A8C6-35EFD3062489}" type="YVALUE">
+                    <a:fld id="{98E3DFF8-2782-4F07-BBEF-881280DB876D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -529,28 +551,28 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A3759C1-7777-4FFF-92FE-8E0B470908D4}" type="CELLRANGE">
+                    <a:fld id="{51928C58-7A06-4F2D-AEDA-9E61F006C01E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C2AC502C-F44C-45E4-8A91-57D8516F4D19}" type="XVALUE">
+                    <a:fld id="{849794F1-F8C5-4DF2-9A39-5F3B2A77A967}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{D61FA7B0-B891-4916-B3E0-7B654E7C8138}" type="YVALUE">
+                    <a:fld id="{B06E2B87-798B-4710-AF2A-01F5C2E24524}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -1615,10 +1637,142 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E565AAE9-EF57-905A-EE17-D8B7D94067F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5539740" y="91440"/>
+          <a:ext cx="4762500" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0B0E98-93F2-1A5E-5540-37777B5DD9A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7452360" y="0"/>
+          <a:ext cx="2918460" cy="2918460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1656,7 +1810,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1762,7 +1916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1914,22 +2068,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221671A8-D9CE-4748-9981-6FFE3CEBF706}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -1938,25 +2092,25 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>5</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>6</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1970,7 +2124,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -2012,11 +2166,11 @@
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:M9" si="0">SQRT(SUM(($B$3-$B4)^2,($C$3-$C4)^2))</f>
+        <f t="shared" ref="G4:G9" si="0">SQRT(SUM(($B$3-$B4)^2,($C$3-$C4)^2))</f>
         <v>9.8488578017961039</v>
       </c>
       <c r="H4" s="1">
@@ -2054,7 +2208,7 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="1">
@@ -2096,7 +2250,7 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -2138,7 +2292,7 @@
       <c r="C7">
         <v>14</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="1">
@@ -2180,7 +2334,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="1">
@@ -2222,7 +2376,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="1">
@@ -2264,41 +2418,41 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>3</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>4</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>6</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="1">
@@ -2331,7 +2485,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>2</v>
       </c>
       <c r="G14" s="1">
@@ -2364,11 +2518,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G14:G19" si="13">SUM(ABS($B$3-$B5),ABS($C$3-$C5))</f>
+        <f t="shared" ref="G15:G19" si="13">SUM(ABS($B$3-$B5),ABS($C$3-$C5))</f>
         <v>15</v>
       </c>
       <c r="H15" s="1">
@@ -2397,7 +2551,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>4</v>
       </c>
       <c r="G16" s="1">
@@ -2430,7 +2584,7 @@
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>5</v>
       </c>
       <c r="G17" s="1">
@@ -2463,7 +2617,7 @@
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>6</v>
       </c>
       <c r="G18" s="1">
@@ -2496,7 +2650,7 @@
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>7</v>
       </c>
       <c r="G19" s="1">
@@ -2538,41 +2692,41 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>3</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>5</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>6</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -2605,7 +2759,7 @@
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="1">
@@ -2638,7 +2792,7 @@
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>3</v>
       </c>
       <c r="G25" s="1">
@@ -2671,7 +2825,7 @@
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" s="1">
@@ -2704,7 +2858,7 @@
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>5</v>
       </c>
       <c r="G27" s="1">
@@ -2737,7 +2891,7 @@
       </c>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>6</v>
       </c>
       <c r="G28" s="1">
@@ -2770,7 +2924,7 @@
       </c>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>7</v>
       </c>
       <c r="G29" s="1">
@@ -2811,4 +2965,1383 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F5F91-2C13-4BDB-B593-2D61C11947CB}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f ca="1">SQRT(SUM(($B$3-$B2)^2,($C$3-$C2)^2))</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <f ca="1">SQRT(SUM(($B$4-$B2)^2,($C$4-$C2)^2))</f>
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">SQRT(SUM(($B$5-$B2)^2,($C$5-$C2)^2))</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">SQRT(SUM(($B$6-$B2)^2,($C$6-$C2)^2))</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">SQRT(SUM(($B$7-$B2)^2,($C$7-$C2)^2))</f>
+        <v>16.278820596099706</v>
+      </c>
+      <c r="G2" s="1">
+        <f ca="1">SQRT(SUM(($B$8-$B2)^2,($C$8-$C2)^2))</f>
+        <v>13.892443989449804</v>
+      </c>
+      <c r="H2" s="1">
+        <f ca="1">SQRT(SUM(($B$9-$B2)^2,($C$9-$C2)^2))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B8" ca="1" si="0">SQRT(SUM(($B$3-$B3)^2,($C$3-$C3)^2))</f>
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C8" ca="1" si="1">SQRT(SUM(($B$4-$B3)^2,($C$4-$C3)^2))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D8" ca="1" si="2">SQRT(SUM(($B$5-$B3)^2,($C$5-$C3)^2))</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" ca="1" si="3">SQRT(SUM(($B$6-$B3)^2,($C$6-$C3)^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F8" ca="1" si="4">SQRT(SUM(($B$7-$B3)^2,($C$7-$C3)^2))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" ca="1" si="5">SQRT(SUM(($B$8-$B3)^2,($C$8-$C3)^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H8" ca="1" si="6">SQRT(SUM(($B$9-$B3)^2,($C$9-$C3)^2))</f>
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.212670403551895</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.661903789690601</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.278820596099706</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.212670403551895</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="H6" s="1">
+        <f ca="1">SQRT(SUM(($B$9-$B6)^2,($C$9-$C6)^2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.892443989449804</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.661903789690601</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14.21</v>
+      </c>
+      <c r="F19" s="1">
+        <v>11.66</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:E21" ca="1" si="7">SQRT(SUM(($B$7-$B20)^2,($C$7-$C20)^2))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:F21" ca="1" si="8">SQRT(SUM(($B$8-$B20)^2,($C$8-$C20)^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14.21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="G22" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>11.66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.2195444572928906</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>8.25</v>
+      </c>
+      <c r="D29">
+        <v>8.94</v>
+      </c>
+      <c r="E29">
+        <v>14.21</v>
+      </c>
+      <c r="F29" s="6">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>8.25</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>7.21</v>
+      </c>
+      <c r="E30">
+        <v>7.62</v>
+      </c>
+      <c r="F30">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>8.94</v>
+      </c>
+      <c r="C31">
+        <v>7.21</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F31">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>14.21</v>
+      </c>
+      <c r="C32">
+        <v>7.62</v>
+      </c>
+      <c r="D32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>4.12</v>
+      </c>
+      <c r="C33">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D33">
+        <v>6.4</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>147</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>36</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>147</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>8.25</v>
+      </c>
+      <c r="D37">
+        <v>6.4</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>8.25</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>7.21</v>
+      </c>
+      <c r="E38">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>6.4</v>
+      </c>
+      <c r="C39">
+        <v>7.21</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>7.62</v>
+      </c>
+      <c r="D40" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
+        <v>147</v>
+      </c>
+      <c r="C45" s="7">
+        <v>356</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>147</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="D46">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>356</v>
+      </c>
+      <c r="B47" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>8.25</v>
+      </c>
+      <c r="C48">
+        <v>7.21</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
+        <v>134567</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>134567</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>7.21</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA481FED-C2B0-43AC-B212-85552C0B17F0}">
+  <dimension ref="B2:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16.278820596099706</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14.212670403551895</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.661903789690601</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16.278820596099706</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14.212670403551895</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="I7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="F8" s="1">
+        <v>11.661903789690601</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11.18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13.89</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11.18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="H20" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13.89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.2195444572928906</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="9">
+        <v>14</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>36</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>9.85</v>
+      </c>
+      <c r="E27">
+        <v>13.89</v>
+      </c>
+      <c r="F27">
+        <v>16.28</v>
+      </c>
+      <c r="G27" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>9.85</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>8.25</v>
+      </c>
+      <c r="F28">
+        <v>7.62</v>
+      </c>
+      <c r="G28">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>13.89</v>
+      </c>
+      <c r="D29">
+        <v>8.25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>7.07</v>
+      </c>
+      <c r="G29">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>16.28</v>
+      </c>
+      <c r="D30">
+        <v>7.62</v>
+      </c>
+      <c r="E30">
+        <v>7.07</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="E31">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
+        <v>147</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>36</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>147</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>9.85</v>
+      </c>
+      <c r="E35">
+        <v>13.89</v>
+      </c>
+      <c r="F35">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>9.85</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>8.25</v>
+      </c>
+      <c r="F36">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>13.89</v>
+      </c>
+      <c r="D37">
+        <v>8.25</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>16.28</v>
+      </c>
+      <c r="D38">
+        <v>7.62</v>
+      </c>
+      <c r="E38" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9">
+        <v>147</v>
+      </c>
+      <c r="D41" s="9">
+        <v>356</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="9">
+        <v>147</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>16.28</v>
+      </c>
+      <c r="E42">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>356</v>
+      </c>
+      <c r="C43">
+        <v>16.28</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>9.85</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="7">
+        <v>147</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
+        <v>147</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>2356</v>
+      </c>
+      <c r="C48">
+        <v>16.28</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Многомерный анализ и прогнозирование/точки на графике.xlsx
+++ b/Многомерный анализ и прогнозирование/точки на графике.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\7 сем\7_sem\Многомерный анализ и прогнозирование\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 курс\7 сем\_repo\Многомерный анализ и прогнозирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAC464-6EE4-4C76-A395-CF6699BAB38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{359699B7-45B3-472F-85CF-B239163E2D92}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="одиночная связь" sheetId="2" r:id="rId2"/>
     <sheet name="Полная связь" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,18 +132,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -163,7 +162,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -245,30 +244,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54196CC8-4C22-4AB3-829C-151CC8B6AD9B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{41528AA3-C248-463F-B5BC-B08B2182C722}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{3A1035B6-DD2D-4491-9A4C-CD8924CBFF92}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{9A8813E0-5812-45C4-8E82-B09E533D565F}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{BC7C0049-34B4-4C74-BFFC-8418EC490674}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{59BB51B8-7E6C-4E37-8EBB-CCFCB04744FB}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -284,9 +283,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-AFD9-4F36-8851-C0A0FBB327E0}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -296,30 +292,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFFB39DD-B18B-4730-91EC-01F8424BCC57}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{89040F92-76F9-4644-B205-461F453E8544}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{F1708DA7-850D-4425-9F6E-0C67909F7148}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{2AFF854A-3827-4CB2-AF52-503A0075783F}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{4A0F019C-6B57-499B-9135-8A00FECFC26A}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{3741D98A-AFB4-4362-8D05-944FFA85392E}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -335,9 +331,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AFD9-4F36-8851-C0A0FBB327E0}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -347,30 +340,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B4C66B9-B7D8-42FD-96EC-CCD6D6051EDD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1328BCD5-A69A-46EB-9F2D-F2AE48E9E40F}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C10183E3-34D8-4FC2-AFA1-0535DD492921}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{21F70960-06C6-4187-9588-D057B96EC376}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{45486EA3-4ACB-4199-9374-23182608778D}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{8C84C8BB-F616-4D7E-AA2D-4C3B6E8357F9}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -386,9 +379,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-AFD9-4F36-8851-C0A0FBB327E0}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -398,30 +388,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CC2217F-A6B6-41F2-AB72-6D5F008637FC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{814083D6-7052-4EF4-96E9-3181B86FB51B}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{D8454905-8CBC-4C27-B3C5-2FB19412ADF0}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{8DE0664B-0749-4FF6-AA3B-9A845DEF59DC}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{211CCD19-9EAC-4A73-BB7A-982FA85B6953}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{3FCD19CA-B34F-4F21-8CF5-0115A96C469C}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -437,9 +427,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-AFD9-4F36-8851-C0A0FBB327E0}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -449,30 +436,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71F8AAD1-18F9-4382-8B96-0EEAC9327D3D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{02FE3838-D066-40A4-9EB7-FC9E907622EA}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{39A647D9-4FCC-49B4-AC9B-A422C02E5223}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{C7E86592-7E46-4A3A-8826-485ECFF69AF2}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{F54DA95D-EC91-4F2E-A7BB-DFD63D78C8D7}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{01BE235D-E6EF-4035-9EA4-35EFD46790E0}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -488,9 +475,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-AFD9-4F36-8851-C0A0FBB327E0}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -500,30 +484,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2B476F8-9C98-4AA3-82D1-58B24630AB39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5AAB0176-F1CF-4CF1-ADFA-ED7147A40147}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{70860EF7-C63A-48C9-AAD7-1BEE49FCE3D4}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{2747473F-A290-410E-B0CE-DC2D1E45892D}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{98E3DFF8-2782-4F07-BBEF-881280DB876D}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{4062AE0B-A4A1-49CE-8F99-5BFBC5C8565F}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -539,9 +523,6 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-AFD9-4F36-8851-C0A0FBB327E0}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -551,30 +532,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51928C58-7A06-4F2D-AEDA-9E61F006C01E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{54A86D70-AD9F-4B06-94E8-1CE6582FF23C}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{849794F1-F8C5-4DF2-9A39-5F3B2A77A967}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{B9BDFAD9-37BB-4824-9BB5-14E672672D89}" type="XVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{B06E2B87-798B-4710-AF2A-01F5C2E24524}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{7DEAE7EF-FC0B-4663-A232-D444B468C97C}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="ru-RU" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -589,9 +570,6 @@
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-AFD9-4F36-8851-C0A0FBB327E0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -638,7 +616,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -715,7 +693,10 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFD9-4F36-8851-C0A0FBB327E0}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Sheet1!$A$3:$A$9</c15:f>
@@ -745,9 +726,6 @@
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFD9-4F36-8851-C0A0FBB327E0}"/>
-            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -758,11 +736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1687719664"/>
-        <c:axId val="1687714384"/>
+        <c:axId val="1762895408"/>
+        <c:axId val="1762907920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1687719664"/>
+        <c:axId val="1762895408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,12 +852,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687714384"/>
+        <c:crossAx val="1762907920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1687714384"/>
+        <c:axId val="1762907920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +969,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687719664"/>
+        <c:crossAx val="1762895408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1616,7 +1594,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B31C74F-B9C7-C2B5-CB96-AD6744E094A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B31C74F-B9C7-C2B5-CB96-AD6744E094A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,61 +1619,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E565AAE9-EF57-905A-EE17-D8B7D94067F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5539740" y="91440"/>
-          <a:ext cx="4762500" cy="4762500"/>
+          <a:off x="5268686" y="68036"/>
+          <a:ext cx="3603172" cy="5612197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1707,61 +1662,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302505</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0B0E98-93F2-1A5E-5540-37777B5DD9A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7452360" y="0"/>
-          <a:ext cx="2918460" cy="2918460"/>
+          <a:off x="6803572" y="217715"/>
+          <a:ext cx="5432397" cy="4327071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2065,27 +1997,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221671A8-D9CE-4748-9981-6FFE3CEBF706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2130,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2172,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2214,7 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2366,7 +2298,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2417,7 +2349,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11" s="2">
         <v>1</v>
       </c>
@@ -2440,18 +2372,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" s="2">
         <v>1</v>
       </c>
@@ -2484,7 +2416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F14" s="2">
         <v>2</v>
       </c>
@@ -2517,7 +2449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" s="2">
         <v>3</v>
       </c>
@@ -2550,7 +2482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" s="2">
         <v>4</v>
       </c>
@@ -2583,7 +2515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -2616,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" s="2">
         <v>6</v>
       </c>
@@ -2649,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F19" s="2">
         <v>7</v>
       </c>
@@ -2682,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2691,7 +2623,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G21" s="2">
         <v>1</v>
       </c>
@@ -2714,18 +2646,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="G22" s="4" t="s">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2758,7 +2690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F24" s="2">
         <v>2</v>
       </c>
@@ -2791,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F25" s="2">
         <v>3</v>
       </c>
@@ -2824,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F26" s="2">
         <v>4</v>
       </c>
@@ -2857,7 +2789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2890,7 +2822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F28" s="2">
         <v>6</v>
       </c>
@@ -2923,7 +2855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F29" s="2">
         <v>7</v>
       </c>
@@ -2968,16 +2900,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F5F91-2C13-4BDB-B593-2D61C11947CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -3000,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3033,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3066,7 +2998,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3099,11 +3031,11 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>2.2360679774997898</v>
       </c>
@@ -3132,7 +3064,7 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3165,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3198,7 +3130,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3231,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -3251,7 +3183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -3274,7 +3206,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -3288,18 +3220,18 @@
         <v>7.21</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E21" ca="1" si="7">SQRT(SUM(($B$7-$B20)^2,($C$7-$C20)^2))</f>
+        <f t="shared" ref="E20" ca="1" si="7">SQRT(SUM(($B$7-$B20)^2,($C$7-$C20)^2))</f>
         <v>7.6157731058639087</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20:F21" ca="1" si="8">SQRT(SUM(($B$8-$B20)^2,($C$8-$C20)^2))</f>
+        <f t="shared" ref="F20" ca="1" si="8">SQRT(SUM(($B$8-$B20)^2,($C$8-$C20)^2))</f>
         <v>8.2462112512353212</v>
       </c>
       <c r="G20" s="1">
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -3315,14 +3247,14 @@
       <c r="E21" s="1">
         <v>7.0710678118654755</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>2.8284271247461903</v>
       </c>
       <c r="G21" s="1">
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -3345,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -3368,7 +3300,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -3391,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>14</v>
       </c>
@@ -3408,7 +3340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -3424,11 +3356,11 @@
       <c r="E29">
         <v>14.21</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>4.12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3448,7 +3380,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>36</v>
       </c>
@@ -3468,7 +3400,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -3488,7 +3420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -3508,22 +3440,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
         <v>147</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>36</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>147</v>
       </c>
       <c r="B37">
@@ -3539,8 +3471,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>2</v>
       </c>
       <c r="B38">
@@ -3556,8 +3488,8 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
       <c r="B39">
@@ -3569,12 +3501,12 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>5</v>
       </c>
       <c r="B40">
@@ -3583,43 +3515,43 @@
       <c r="C40">
         <v>7.62</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="7">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
         <v>147</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="5">
         <v>356</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>147</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>6.4</v>
       </c>
       <c r="D46">
         <v>8.25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>356</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>6.4</v>
       </c>
       <c r="C47">
@@ -3629,8 +3561,8 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>2</v>
       </c>
       <c r="B48">
@@ -3643,16 +3575,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="7">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
         <v>134567</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>134567</v>
       </c>
       <c r="B51">
@@ -3662,8 +3594,8 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>2</v>
       </c>
       <c r="B52">
@@ -3680,46 +3612,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA481FED-C2B0-43AC-B212-85552C0B17F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="7">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>6</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -3731,7 +3663,7 @@
       <c r="E3" s="1">
         <v>11.180339887498949</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>2.2360679774997898</v>
       </c>
       <c r="G3" s="1">
@@ -3744,8 +3676,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="1">
@@ -3770,8 +3702,8 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="1">
@@ -3796,11 +3728,11 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>2.2360679774997898</v>
       </c>
       <c r="D6" s="1">
@@ -3822,8 +3754,8 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -3848,8 +3780,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="1">
@@ -3874,8 +3806,8 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="1">
@@ -3900,28 +3832,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="1">
@@ -3943,8 +3875,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="1">
@@ -3966,8 +3898,8 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -3982,15 +3914,15 @@
       <c r="F19" s="1">
         <v>7.0710678118654755</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>2.8284271247461903</v>
       </c>
       <c r="H19" s="1">
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
         <v>5</v>
       </c>
       <c r="C20" s="1">
@@ -4012,8 +3944,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
         <v>6</v>
       </c>
       <c r="C21" s="1">
@@ -4022,7 +3954,7 @@
       <c r="D21" s="1">
         <v>8.2462112512353212</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>2.8284271247461903</v>
       </c>
       <c r="F21" s="1">
@@ -4035,8 +3967,8 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
         <v>7</v>
       </c>
       <c r="C22" s="1">
@@ -4058,25 +3990,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="9">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="7">
         <v>14</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>36</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>14</v>
       </c>
       <c r="C27">
@@ -4091,12 +4023,12 @@
       <c r="F27">
         <v>16.28</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="9">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <v>2</v>
       </c>
       <c r="C28">
@@ -4115,8 +4047,8 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>36</v>
       </c>
       <c r="C29">
@@ -4135,8 +4067,8 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
         <v>5</v>
       </c>
       <c r="C30">
@@ -4155,11 +4087,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <v>7</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>6</v>
       </c>
       <c r="D31">
@@ -4175,22 +4107,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
         <v>147</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>2</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>36</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="7">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
         <v>147</v>
       </c>
       <c r="C35">
@@ -4206,8 +4138,8 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
         <v>2</v>
       </c>
       <c r="C36">
@@ -4223,8 +4155,8 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="7">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
         <v>36</v>
       </c>
       <c r="C37">
@@ -4236,12 +4168,12 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>7.07</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="7">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
         <v>5</v>
       </c>
       <c r="C38">
@@ -4250,26 +4182,26 @@
       <c r="D38">
         <v>7.62</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>7.07</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="9">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="7">
         <v>147</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>356</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="9">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
         <v>147</v>
       </c>
       <c r="C42">
@@ -4282,8 +4214,8 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="9">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
         <v>356</v>
       </c>
       <c r="C43">
@@ -4292,34 +4224,34 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>8.25</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="9">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
         <v>2</v>
       </c>
       <c r="C44">
         <v>9.85</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>8.25</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="7">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="5">
         <v>147</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>2356</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="9">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
         <v>147</v>
       </c>
       <c r="C47">
@@ -4329,8 +4261,8 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="9">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
         <v>2356</v>
       </c>
       <c r="C48">

--- a/Многомерный анализ и прогнозирование/точки на графике.xlsx
+++ b/Многомерный анализ и прогнозирование/точки на графике.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 курс\7 сем\_repo\Многомерный анализ и прогнозирование\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\7 сем\7_sem\Многомерный анализ и прогнозирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1F6B49-89AB-4D15-B3B8-8729CBF48A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="одиночная связь" sheetId="2" r:id="rId2"/>
-    <sheet name="Полная связь" sheetId="3" r:id="rId3"/>
+    <sheet name="К средних" sheetId="4" r:id="rId2"/>
+    <sheet name="одиночная связь" sheetId="2" r:id="rId3"/>
+    <sheet name="Полная связь" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>X1</t>
   </si>
@@ -63,12 +65,21 @@
   <si>
     <t>Чебышев</t>
   </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +88,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +133,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -144,6 +180,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -162,7 +202,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -244,30 +284,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41528AA3-C248-463F-B5BC-B08B2182C722}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{9C5B3F08-DB38-4BA7-AC9B-D870BE4D8981}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{9A8813E0-5812-45C4-8E82-B09E533D565F}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{9BFFE17D-4170-4159-81DD-D56F9BFE8B41}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{59BB51B8-7E6C-4E37-8EBB-CCFCB04744FB}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{6B16779E-3B8D-4B29-9F0C-0A6F587256AE}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -283,6 +323,9 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0555-4CBC-9BFD-0ECD38AC9E46}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -292,30 +335,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89040F92-76F9-4644-B205-461F453E8544}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{FC085D0E-B5C5-4ABD-A236-CD0CC1F9A922}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{2AFF854A-3827-4CB2-AF52-503A0075783F}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{2A1F568C-2FE1-4E02-B783-82D209052843}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{3741D98A-AFB4-4362-8D05-944FFA85392E}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{77B55A6D-5C0C-4EF6-9FA3-D4F299534FEA}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -331,6 +374,9 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0555-4CBC-9BFD-0ECD38AC9E46}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -340,30 +386,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1328BCD5-A69A-46EB-9F2D-F2AE48E9E40F}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{6EF17411-FBF0-4A10-A98A-5B02BAAF1CFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{21F70960-06C6-4187-9588-D057B96EC376}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{B73374E5-F9AA-46A2-B9DE-6954479DD284}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{8C84C8BB-F616-4D7E-AA2D-4C3B6E8357F9}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{718ECFEB-A969-4CC6-8FC1-C6EA4950B5A6}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -379,6 +425,9 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0555-4CBC-9BFD-0ECD38AC9E46}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -388,30 +437,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{814083D6-7052-4EF4-96E9-3181B86FB51B}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{F77CD618-74C1-401B-9771-1F8FD63E45DB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{8DE0664B-0749-4FF6-AA3B-9A845DEF59DC}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{341BBBAF-1C87-47C2-8F54-DD4A2348A3E2}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{3FCD19CA-B34F-4F21-8CF5-0115A96C469C}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{AA81F0F1-169D-4EB9-9BD9-1E51A1B68AE2}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -427,6 +476,9 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0555-4CBC-9BFD-0ECD38AC9E46}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -436,30 +488,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02FE3838-D066-40A4-9EB7-FC9E907622EA}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{FBC4A9BC-5505-45C9-A2FF-1E63CF0000BB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C7E86592-7E46-4A3A-8826-485ECFF69AF2}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{F3493185-B620-4539-A899-A46893E2D254}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{01BE235D-E6EF-4035-9EA4-35EFD46790E0}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{0A616E30-127B-4390-9A1F-90767C8C9E03}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -475,6 +527,9 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0555-4CBC-9BFD-0ECD38AC9E46}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -484,30 +539,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AAB0176-F1CF-4CF1-ADFA-ED7147A40147}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{06C06468-ED9E-4FE4-8C76-4D9B7308B43E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{2747473F-A290-410E-B0CE-DC2D1E45892D}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{C1E1C9E3-7874-42C1-A477-2864947BAA56}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{4062AE0B-A4A1-49CE-8F99-5BFBC5C8565F}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{1FB3C294-7210-4460-A8E1-F6E062D33948}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -523,6 +578,9 @@
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0555-4CBC-9BFD-0ECD38AC9E46}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -532,30 +590,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54A86D70-AD9F-4B06-94E8-1CE6582FF23C}" type="CELLRANGE">
-                      <a:rPr lang="ru-RU"/>
+                    <a:fld id="{92CE1CEC-D3CA-4756-87A8-11BBD480287A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{B9BDFAD9-37BB-4824-9BB5-14E672672D89}" type="XVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{A4923DE6-0613-40BB-95AB-D62EF21E6F61}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ X]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{7DEAE7EF-FC0B-4663-A232-D444B468C97C}" type="YVALUE">
-                      <a:rPr lang="ru-RU" baseline="0"/>
+                    <a:fld id="{E13518D8-0F1C-4A76-A4BD-F50D4ED86507}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="ru-RU" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -570,6 +628,9 @@
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0555-4CBC-9BFD-0ECD38AC9E46}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -616,7 +677,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -693,10 +754,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFD9-4F36-8851-C0A0FBB327E0}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>Sheet1!$A$3:$A$9</c15:f>
@@ -725,6 +783,1008 @@
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFD9-4F36-8851-C0A0FBB327E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1762895408"/>
+        <c:axId val="1762907920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1762895408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762907920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1762907920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> X2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762895408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>начало первой итерации</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-A57B-41D6-9235-BCD4D0F93D6A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A57B-41D6-9235-BCD4D0F93D6A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A57B-41D6-9235-BCD4D0F93D6A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A57B-41D6-9235-BCD4D0F93D6A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{509555BD-51DA-478E-9191-5F7EAD579FE1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{6FDF19CB-1F97-42E6-9482-6D7F3DDE0DD5}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{4731E94D-7D66-4007-8C92-F27AAF2AC674}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB76E283-4F72-4537-8BE0-5B1EED061F1E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{3F3F79E7-ED84-4459-85D3-30D370E6DBE0}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{6CF31DEA-8FCC-458A-86A2-279B4FAE8FD0}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4D1189ED-1030-46FA-ADF2-0990E163E4A2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{AECC215D-15BB-42D3-AC63-F18BDA6B860F}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{129E0F5D-471C-4D2B-A85D-1811AEBDF36E}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7EE60360-3DA3-4DD1-BC13-DE740CA5DB8D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{52A0F352-1EFC-4DE4-8AA2-AB2AF6B49BFE}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{115B0626-CDB9-47D3-B0D3-8140156197A0}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{257FBD94-DFD4-43ED-AD52-2285DDCA91D4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{26F74A88-2C57-4B4F-B7FB-4309CCBE6075}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{3B93452E-19DB-4958-8428-232DFC1ACB6F}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1DAF0869-15FB-4715-8783-018A0BBF8ADC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{22412281-B800-4AB8-AADD-6D14E8B80E1A}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{87223E3E-C810-4304-8FE0-2D9D9E9F9E4A}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C0F77999-1ACC-4CF6-8CC0-26A507EE61AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{78691853-193C-4ADE-B120-994B7629AED5}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{D8EC0E55-7000-452D-9ECB-A299FDCB8F19}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A57B-41D6-9235-BCD4D0F93D6A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$3:$A$9</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>O1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>O2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>O3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>O4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>O5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>O6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>O7</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A57B-41D6-9235-BCD4D0F93D6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,6 +2079,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1574,6 +2674,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1594,7 +3210,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B31C74F-B9C7-C2B5-CB96-AD6744E094A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B31C74F-B9C7-C2B5-CB96-AD6744E094A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,6 +3233,49 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043C0B9B-E783-474D-B55F-2BAB426BFE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1632,7 +3291,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1658,7 +3323,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1675,7 +3340,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1997,16 +3668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +3688,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +3717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +3759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +3801,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +3843,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +3885,7 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +3927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2298,7 +3969,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2349,7 +4020,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G11" s="2">
         <v>1</v>
       </c>
@@ -2372,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2383,7 +4054,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F13" s="2">
         <v>1</v>
       </c>
@@ -2416,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F14" s="2">
         <v>2</v>
       </c>
@@ -2449,7 +4120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F15" s="2">
         <v>3</v>
       </c>
@@ -2482,7 +4153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F16" s="2">
         <v>4</v>
       </c>
@@ -2515,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -2548,7 +4219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2">
         <v>6</v>
       </c>
@@ -2581,7 +4252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <v>7</v>
       </c>
@@ -2614,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2623,7 +4294,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
       <c r="G21" s="2">
         <v>1</v>
       </c>
@@ -2646,7 +4317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="G22" s="10" t="s">
         <v>11</v>
       </c>
@@ -2657,7 +4328,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2690,7 +4361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F24" s="2">
         <v>2</v>
       </c>
@@ -2723,7 +4394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F25" s="2">
         <v>3</v>
       </c>
@@ -2756,7 +4427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F26" s="2">
         <v>4</v>
       </c>
@@ -2789,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2822,7 +4493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F28" s="2">
         <v>6</v>
       </c>
@@ -2855,7 +4526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F29" s="2">
         <v>7</v>
       </c>
@@ -2900,16 +4571,443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA2C077-41A8-4447-AEBE-69BE7116DF8D}">
+  <dimension ref="H2:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14">
+        <v>1</v>
+      </c>
+      <c r="N2" s="14">
+        <v>2</v>
+      </c>
+      <c r="O2" s="14">
+        <v>3</v>
+      </c>
+      <c r="P2" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>5</v>
+      </c>
+      <c r="R2" s="14">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="O3" s="1">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>16.278820596099706</v>
+      </c>
+      <c r="R3" s="1">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="S3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="L4" s="13">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="R4" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="S4" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="S5" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="13">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>14.212670403551895</v>
+      </c>
+      <c r="R6" s="1">
+        <v>11.661903789690601</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>16.278820596099706</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="P7" s="1">
+        <v>14.212670403551895</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="S7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="L8" s="13">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="P8" s="1">
+        <v>11.661903789690601</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="13">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>13</v>
+      </c>
+      <c r="R9" s="1">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11">
+        <v>14</v>
+      </c>
+      <c r="J10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2932,7 +5030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2965,7 +5063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2998,7 +5096,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3031,7 +5129,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3064,7 +5162,7 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3097,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3130,7 +5228,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3163,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -3183,7 +5281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -3206,7 +5304,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -3231,7 +5329,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -3254,7 +5352,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -3277,7 +5375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -3300,7 +5398,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -3323,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>14</v>
       </c>
@@ -3340,7 +5438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -3360,7 +5458,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3380,7 +5478,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>36</v>
       </c>
@@ -3400,7 +5498,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -3420,7 +5518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -3440,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>147</v>
       </c>
@@ -3454,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>147</v>
       </c>
@@ -3471,7 +5569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -3488,7 +5586,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -3505,7 +5603,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -3522,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>147</v>
       </c>
@@ -3533,7 +5631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>147</v>
       </c>
@@ -3547,7 +5645,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>356</v>
       </c>
@@ -3561,7 +5659,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
@@ -3575,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>134567</v>
       </c>
@@ -3583,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>134567</v>
       </c>
@@ -3594,7 +5692,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -3611,23 +5709,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -3650,7 +5748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -3676,7 +5774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -3702,7 +5800,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -3728,7 +5826,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -3754,7 +5852,7 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -3780,7 +5878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -3806,7 +5904,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -3832,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>14</v>
       </c>
@@ -3852,7 +5950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -3875,7 +5973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -3898,7 +5996,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -3921,7 +6019,7 @@
         <v>6.4031242374328485</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>5</v>
       </c>
@@ -3944,7 +6042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>6</v>
       </c>
@@ -3967,7 +6065,7 @@
         <v>9.2195444572928871</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>7</v>
       </c>
@@ -3990,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" s="7">
         <v>14</v>
       </c>
@@ -4007,7 +6105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>14</v>
       </c>
@@ -4027,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>2</v>
       </c>
@@ -4047,7 +6145,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>36</v>
       </c>
@@ -4067,7 +6165,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>5</v>
       </c>
@@ -4087,7 +6185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>7</v>
       </c>
@@ -4107,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>147</v>
       </c>
@@ -4121,7 +6219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>147</v>
       </c>
@@ -4138,7 +6236,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>2</v>
       </c>
@@ -4155,7 +6253,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>36</v>
       </c>
@@ -4172,7 +6270,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>5</v>
       </c>
@@ -4189,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" s="7">
         <v>147</v>
       </c>
@@ -4200,7 +6298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>147</v>
       </c>
@@ -4214,7 +6312,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>356</v>
       </c>
@@ -4228,7 +6326,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>2</v>
       </c>
@@ -4242,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C46" s="5">
         <v>147</v>
       </c>
@@ -4250,7 +6348,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>147</v>
       </c>
@@ -4261,7 +6359,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>2356</v>
       </c>
